--- a/test.xlsx
+++ b/test.xlsx
@@ -24,55 +24,358 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <t>Iphone</t>
-  </si>
-  <si>
-    <t>$700</t>
-  </si>
-  <si>
-    <t>Google</t>
-  </si>
-  <si>
-    <t>Nexus</t>
-  </si>
-  <si>
-    <t>$500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samsung </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Galaxy </t>
-  </si>
-  <si>
-    <t>$650</t>
-  </si>
-  <si>
-    <t>Asus</t>
-  </si>
-  <si>
-    <t>Zendphone</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="113">
+  <si>
+    <t>ORIGEN</t>
+  </si>
+  <si>
+    <t>DESTINO</t>
+  </si>
+  <si>
+    <t>LINEA 
+AEREA</t>
+  </si>
+  <si>
+    <t>TARIFA 
+FINAL HOY</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>VTO</t>
+  </si>
+  <si>
+    <t>FINANCIACION</t>
+  </si>
+  <si>
+    <t>Legales</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES</t>
+  </si>
+  <si>
+    <t>LINK</t>
+  </si>
+  <si>
+    <t>BUE</t>
+  </si>
+  <si>
+    <t>MAD</t>
+  </si>
+  <si>
+    <t>UX</t>
+  </si>
+  <si>
+    <t>VISA</t>
+  </si>
+  <si>
+    <t>MADRID VUELO DIRECTO. FEBRERO Y MARZO 2020</t>
+  </si>
+  <si>
+    <t>DIRECTO</t>
+  </si>
+  <si>
+    <t>https://xxxxxxx.com.ar/vuelos/vuelos-a-madrid/BUE-MAD?airlines=UX</t>
+  </si>
+  <si>
+    <t>CUN</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>BBVA</t>
+  </si>
+  <si>
+    <t>CANCUN NO INCLUYE EQUIPAJE DE BODEGA: OCTUBRE A DICIEMBRE 2019</t>
+  </si>
+  <si>
+    <t>https://xxxxxxx.com.ar/vuelos/vuelos-a-cancun/BUE-CUN?airlines=G0</t>
+  </si>
+  <si>
+    <t>CFB</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>PATAGONIA</t>
+  </si>
+  <si>
+    <t>PARA VOLAR EN DICIEMBRE 2019. NO INCLUYE EQUIPAJE DE BODEGA</t>
+  </si>
+  <si>
+    <t>https://xxxxxxx.com.ar/vuelos/vuelos-a-cabo-frio/BUE-CFB</t>
+  </si>
+  <si>
+    <t>MAD+ROM</t>
+  </si>
+  <si>
+    <t>PARA VOLAR EN MARZO Y ABRIL 2020</t>
+  </si>
+  <si>
+    <t>https://xxxxxxx.com.ar/vuelos/multiples-destinos/BUE-MAD,MAD-ROM,ROM-BUE</t>
+  </si>
+  <si>
+    <t>ROM</t>
+  </si>
+  <si>
+    <t>NO INCLUYE EQUIPAJE DE BODEGA: NOVIEMBRE</t>
+  </si>
+  <si>
+    <t>https://xxxxxxx.com.ar/vuelos/vuelos-a-roma/BUE-ROM?airlines=UX</t>
+  </si>
+  <si>
+    <t>RIO</t>
+  </si>
+  <si>
+    <t>sin vto</t>
+  </si>
+  <si>
+    <t>RIO DE JANEIRO DIRECTO NO INCLUYE EQUIPAJE DE BODEGA: marzo 2020</t>
+  </si>
+  <si>
+    <t>https://xxxxxxx.com.ar/vuelos/vuelos-a-rio-de-janeiro/BUE-RIO?airlines=G0</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>NOVIEMBRE 2019 Y FEBRERO, MARZO 2020</t>
+  </si>
+  <si>
+    <t>https://xxxxxxx.com.ar/vuelos/vuelos-a-milan/BUE-MIL?airlines=UX</t>
+  </si>
+  <si>
+    <t>SSA</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>CABAL</t>
+  </si>
+  <si>
+    <t>SALVADOR DIRECTO NO INCLUYE EQUIPAJE DE BODEGA: OCTUBRE A DICIEMBRE Y ABRIL A MAYO 2020</t>
+  </si>
+  <si>
+    <t>https://xxxxxxx.com.ar/vuelos/vuelos-a-salvador/BUE-SSA?airlines=AR</t>
+  </si>
+  <si>
+    <t>PUJ</t>
+  </si>
+  <si>
+    <t>NO INCLUYE EQUIPAJE DE BODEGA: OCTUBRE A DICIEMBRE, MARZO A ABRIL 2020</t>
+  </si>
+  <si>
+    <t>https://xxxxxxx.com.ar/vuelos/vuelos-a-punta-cana/BUE-PUJ?airlines=AR</t>
+  </si>
+  <si>
+    <t>CTG</t>
+  </si>
+  <si>
+    <t>CARTAGENA NO INCLUYE EQUIPAJE DE BODEGA: NOVIEMBRE 2019. MARZO A MAYO 2020</t>
+  </si>
+  <si>
+    <t>https://xxxxxxx.com.ar/vuelos/vuelos-a-cartagena-de-indias/BUE-CTG?airlines=G0</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>OCTUBRE Y NOVIEMBRE</t>
+  </si>
+  <si>
+    <t>https://xxxxxxx.com.ar/vuelos/vuelos-a-miami/BUE-MIA?airlines=AR</t>
+  </si>
+  <si>
+    <t>NO INCLUYE EQUIPAJE DE BODEGA:NOVIEMBRE Y DICIEMBRE 2019. MARZO 2020.</t>
+  </si>
+  <si>
+    <t>https://xxxxxxx.com.ar/vuelos/vuelos-a-cancun/BUE-CUN?airlines=AR</t>
+  </si>
+  <si>
+    <t>SCL</t>
+  </si>
+  <si>
+    <t>VUELOS PARA COPA LIBERTADORES NOVIEMBRE</t>
+  </si>
+  <si>
+    <t>https://xxxxxxx.com.ar/vuelos/vuelos-a-santiago-de-chile/bue-scl?months=11&amp;airlines=AR&amp;sortBy=DEPARTURE,DESC</t>
+  </si>
+  <si>
+    <t>IGU</t>
+  </si>
+  <si>
+    <t>RIO DIRECTO NO INCLUYE EQUIPAJE DE BODEGA: MARZO 2020</t>
+  </si>
+  <si>
+    <t>https://xxxxxxx.com.ar/vuelos/vuelos-a-rio-de-janeiro/IGU-RIO?nonStops=true</t>
+  </si>
+  <si>
+    <t>NO INCLUYE EQUIPAJE DE BODEGA: MARZO 2020</t>
+  </si>
+  <si>
+    <t>https://xxxxxxx.com.ar/vuelos/vuelos-a-salvador-de-bahia/IGU-SSA</t>
+  </si>
+  <si>
+    <t>FLN</t>
+  </si>
+  <si>
+    <t>NO INCLUYE EQUIPAJE DE BODEGA: DICIEMBRE 2019 Y FEBRERO A MARZO 2020</t>
+  </si>
+  <si>
+    <t>https://xxxxxxx.com.ar/vuelos/vuelos-a-florianopolis/IGU-FLN</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>NO INCLUYE EQUIPAJE DE BODEGA: OCTUBRE y DICIEMBRE 2019</t>
+  </si>
+  <si>
+    <t>https://xxxxxxx.com.ar/vuelos/vuelos-a-santiago-de-chile/BUE-SCL?airlines=H2</t>
+  </si>
+  <si>
+    <t>HAV</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>LA HABANA OCTUBRE A DICIEMBRE</t>
+  </si>
+  <si>
+    <t>https://xxxxxxx.com.ar/vuelos/vuelos-a-la-habana/SCL-HAV</t>
+  </si>
+  <si>
+    <t>NO INCLUYE EQUIPAJE DE BODEGA: OCTUBRE A DICIEMBRE</t>
+  </si>
+  <si>
+    <t>NO INCLUYE EQUIPAJE DE BODEGA: OCTUBRE A DICIEMBRE. FEBRERO A ABRIL 2020</t>
+  </si>
+  <si>
+    <t>https://xxxxxxx.com.ar/vuelos/vuelos-a-cancun/BUE-PUJ?airlines=G0</t>
+  </si>
+  <si>
+    <t>MIAMI: NO INCLUYE EQUIPAJE DE BODEGA. OCTUBRE A DICIEMBRE 2019. MARZO A MAYO 2020.</t>
+  </si>
+  <si>
+    <t>https://xxxxxxx.com.ar/vuelos/vuelos-a-miami/BUE-MIA?airlines=G0</t>
+  </si>
+  <si>
+    <t>NYC</t>
+  </si>
+  <si>
+    <t>NUEVA YORK NO INCLUYE EQUIPAJE DE BODEGA:NOVIEMBRE</t>
+  </si>
+  <si>
+    <t>https://xxxxxxx.com.ar/vuelos/vuelos-a-nueva-york/BUE-NYC?airlines=G0</t>
+  </si>
+  <si>
+    <t>PUNTA CANA NO INCLUYE EQUIPAJE DE BODEGA: OCTUBRE A DICIEMBRE</t>
+  </si>
+  <si>
+    <t>https://xxxxxxx.com.ar/vuelos/vuelos-a-punta-cana/BUE-PUJ</t>
+  </si>
+  <si>
+    <t>USH</t>
+  </si>
+  <si>
+    <t>NO INCLUYE EQUIPAJE DE BODEGA. PARA VOLAR EN MARZO 2020</t>
+  </si>
+  <si>
+    <t>https://xxxxxxx.com.ar/vuelos/vuelos-a-ushuaia/BUE-USH</t>
+  </si>
+  <si>
+    <t>TUC</t>
+  </si>
+  <si>
+    <t>PROVINCIA</t>
+  </si>
+  <si>
+    <t>INCLUYE ARTÍCULO PERSONAL: NOVIEMBRE Y DICIEMBRE</t>
+  </si>
+  <si>
+    <t>https://xxxxxxx.com.ar/vuelos/vuelos-a-tucuman/BUE-TUC?airlines=AR</t>
+  </si>
+  <si>
+    <t>MDZ</t>
+  </si>
+  <si>
+    <t>CORDOBA: INCLUYE ARTÍCULO PERSONAL. OCTUBRE A DICIEMBRE 2019</t>
+  </si>
+  <si>
+    <t>https://xxxxxxx.com.ar/vuelos/vuelos-a-mendoza/BUE-MDZ?airlines=AR</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>SEPTIEMBRE A NOVIEMBRE 2019. DIRECTO. NO INCLUYE EQUIPAJE DE MANO.</t>
+  </si>
+  <si>
+    <t>https://xxxxxxx.com.ar/vuelos/vuelos-a-santiago-de-chile/MDZ-SCL</t>
+  </si>
+  <si>
+    <t>BKK</t>
+  </si>
+  <si>
+    <t>EK</t>
+  </si>
+  <si>
+    <t>HSBC</t>
+  </si>
+  <si>
+    <t>MAYO A JULIO</t>
+  </si>
+  <si>
+    <t>https://xxxxxxx.com.ar/vuelos/vuelos-a-bangkok/BUE-BKK</t>
+  </si>
+  <si>
+    <t>TYO</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>SUPERVIELLE</t>
+  </si>
+  <si>
+    <t>FEBRERO, ABRIL Y MAYO 2020</t>
+  </si>
+  <si>
+    <t>https://xxxxxxx.com.ar/vuelos/vuelos-a-tokio/BUE-TYO</t>
+  </si>
+  <si>
+    <t>TLV</t>
+  </si>
+  <si>
+    <t>MARZO, ABRIL 2020(NO INCLUYE EQUIPAJE DE BODEGA)</t>
+  </si>
+  <si>
+    <t>https://xxxxxxx.com.ar/vuelos/vuelos-a-tel-aviv/BUE-TLV?airlines=UX</t>
+  </si>
+  <si>
+    <t>AKL</t>
+  </si>
+  <si>
+    <t>NZ</t>
+  </si>
+  <si>
+    <t>https://xxxxxxx.com.ar/vuelos/vuelos-a-auckland/BUE-AKL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,22 +385,68 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF134F5C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -105,18 +454,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -395,71 +787,1137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="108" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D2" s="4">
+        <v>49.19</v>
+      </c>
+      <c r="E2" s="4">
+        <v>825</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H2" s="4">
+        <v>12</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
+      <c r="J2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4">
+        <v>37.515000000000001</v>
+      </c>
+      <c r="E3" s="4">
+        <v>630</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5">
+        <v>6.2549999999999999</v>
+      </c>
+      <c r="H3" s="4">
+        <v>6</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="4">
+        <v>17.779</v>
+      </c>
+      <c r="E4" s="4">
+        <v>300</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5">
+        <v>2.9649999999999999</v>
+      </c>
+      <c r="H4" s="4">
+        <v>6</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4">
+        <v>51.505000000000003</v>
+      </c>
+      <c r="E5" s="4">
+        <v>865</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5">
+        <v>4.29</v>
+      </c>
+      <c r="H5" s="4">
+        <v>12</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4">
+        <v>53.179000000000002</v>
+      </c>
+      <c r="E6" s="4">
+        <v>895</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5">
+        <v>8.8650000000000002</v>
+      </c>
+      <c r="H6" s="4">
+        <v>6</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4">
+        <v>21.035</v>
+      </c>
+      <c r="E7" s="4">
+        <v>355</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="5">
+        <v>3.5049999999999999</v>
+      </c>
+      <c r="H7" s="4">
+        <v>6</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4">
+        <v>53.484999999999999</v>
+      </c>
+      <c r="E8" s="4">
+        <v>900</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5">
+        <v>4.4550000000000001</v>
+      </c>
+      <c r="H8" s="4">
+        <v>12</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="4">
+        <v>25.178999999999998</v>
+      </c>
+      <c r="E9" s="4">
+        <v>425</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>12</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="4">
+        <v>48.1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>810</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5">
+        <v>4.01</v>
+      </c>
+      <c r="H10" s="4">
+        <v>12</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4">
+        <v>28.158999999999999</v>
+      </c>
+      <c r="E11" s="4">
+        <v>475</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5">
+        <v>4.6950000000000003</v>
+      </c>
+      <c r="H11" s="4">
+        <v>6</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="4">
+        <v>38.164999999999999</v>
+      </c>
+      <c r="E12" s="4">
+        <v>640</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5">
+        <v>3.18</v>
+      </c>
+      <c r="H12" s="4">
+        <v>12</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="4">
+        <v>40.520000000000003</v>
+      </c>
+      <c r="E13" s="4">
+        <v>680</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5">
+        <v>3.375</v>
+      </c>
+      <c r="H13" s="4">
+        <v>12</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="4">
+        <v>9.5749999999999993</v>
+      </c>
+      <c r="E14" s="4">
+        <v>160</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="8">
+        <v>800</v>
+      </c>
+      <c r="H14" s="4">
+        <v>12</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="4">
+        <v>8.7550000000000008</v>
+      </c>
+      <c r="E15" s="4">
+        <v>145</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5">
+        <v>8.7550000000000008</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="4">
+        <v>7.3449999999999998</v>
+      </c>
+      <c r="E16" s="4">
+        <v>125</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="4">
+        <v>7.4089999999999998</v>
+      </c>
+      <c r="E17" s="4">
+        <v>125</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="4">
+        <v>7.9349999999999996</v>
+      </c>
+      <c r="E18" s="4">
+        <v>135</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5">
+        <v>7.9349999999999996</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="4">
+        <v>19.66</v>
+      </c>
+      <c r="E19" s="4">
+        <v>330</v>
+      </c>
+      <c r="F19" s="9">
+        <v>43753</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="4">
+        <v>347.51</v>
+      </c>
+      <c r="E20" s="4">
+        <v>5.84</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5">
+        <v>57.92</v>
+      </c>
+      <c r="H20" s="4">
+        <v>6</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="4">
+        <v>46.54</v>
+      </c>
+      <c r="E21" s="4">
+        <v>780</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5">
+        <v>7.7549999999999999</v>
+      </c>
+      <c r="H21" s="4">
+        <v>6</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="4">
+        <v>35.615000000000002</v>
+      </c>
+      <c r="E22" s="4">
+        <v>600</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5">
+        <v>5.9349999999999996</v>
+      </c>
+      <c r="H22" s="4">
+        <v>6</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="L22" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="4">
+        <v>44.53</v>
+      </c>
+      <c r="E23" s="4">
+        <v>750</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5">
+        <v>7.42</v>
+      </c>
+      <c r="H23" s="4">
+        <v>6</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="4">
+        <v>46.54</v>
+      </c>
+      <c r="E24" s="4">
+        <v>780</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5">
+        <v>7.7549999999999999</v>
+      </c>
+      <c r="H24" s="4">
+        <v>6</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="4">
+        <v>5.1189999999999998</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5">
+        <v>1.7050000000000001</v>
+      </c>
+      <c r="H25" s="4">
+        <v>3</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="4">
+        <v>2.85</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="8">
+        <v>315</v>
+      </c>
+      <c r="H26" s="4">
+        <v>9</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="L26" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="4">
+        <v>2.59</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="8">
+        <v>290</v>
+      </c>
+      <c r="H27" s="4">
+        <v>9</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="4">
+        <v>4.3250000000000002</v>
+      </c>
+      <c r="E28" s="4">
+        <v>75</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5">
+        <v>4.3250000000000002</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="4">
+        <v>59.279000000000003</v>
+      </c>
+      <c r="E29" s="4">
+        <v>995</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="H29" s="4">
+        <v>3</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K29" s="4"/>
+      <c r="L29" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="4">
+        <v>56.825000000000003</v>
+      </c>
+      <c r="E30" s="4">
+        <v>955</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5">
+        <v>18.940000000000001</v>
+      </c>
+      <c r="H30" s="4">
+        <v>3</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K30" s="4"/>
+      <c r="L30" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="4">
+        <v>61.085000000000001</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5">
+        <v>5.09</v>
+      </c>
+      <c r="H31" s="4">
+        <v>12</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K31" s="4"/>
+      <c r="L31" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="4">
+        <v>70.394999999999996</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" s="10">
+        <v>43922</v>
+      </c>
+      <c r="K32" s="4"/>
+      <c r="L32" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" display="https://almundo.com.ar/vuelos/vuelos-a-madrid/BUE-MAD?airlines=UX"/>
+    <hyperlink ref="L3" r:id="rId2" display="https://almundo.com.ar/vuelos/vuelos-a-cancun/BUE-CUN?airlines=G0"/>
+    <hyperlink ref="L4" r:id="rId3" display="https://almundo.com.ar/vuelos/vuelos-a-cabo-frio/BUE-CFB"/>
+    <hyperlink ref="L5" r:id="rId4" display="https://almundo.com.ar/vuelos/multiples-destinos/BUE-MAD,MAD-ROM,ROM-BUE"/>
+    <hyperlink ref="L6" r:id="rId5" display="https://almundo.com.ar/vuelos/vuelos-a-roma/BUE-ROM?airlines=UX"/>
+    <hyperlink ref="L7" r:id="rId6" display="https://almundo.com.ar/vuelos/vuelos-a-rio-de-janeiro/BUE-RIO?airlines=G0"/>
+    <hyperlink ref="L8" r:id="rId7" display="https://almundo.com.ar/vuelos/vuelos-a-milan/BUE-MIL?airlines=UX"/>
+    <hyperlink ref="L9" r:id="rId8" display="https://almundo.com.ar/vuelos/vuelos-a-salvador/BUE-SSA?airlines=AR"/>
+    <hyperlink ref="L10" r:id="rId9" display="https://almundo.com.ar/vuelos/vuelos-a-punta-cana/BUE-PUJ?airlines=AR"/>
+    <hyperlink ref="L11" r:id="rId10" display="https://almundo.com.ar/vuelos/vuelos-a-cartagena-de-indias/BUE-CTG?airlines=G0"/>
+    <hyperlink ref="L12" r:id="rId11" display="https://almundo.com.ar/vuelos/vuelos-a-miami/BUE-MIA?airlines=AR"/>
+    <hyperlink ref="L13" r:id="rId12" display="https://almundo.com.ar/vuelos/vuelos-a-cancun/BUE-CUN?airlines=AR"/>
+    <hyperlink ref="L14" r:id="rId13" display="https://almundo.com.ar/vuelos/vuelos-a-santiago-de-chile/bue-scl?months=11&amp;airlines=AR&amp;sortBy=DEPARTURE,DESC"/>
+    <hyperlink ref="L15" r:id="rId14" display="https://almundo.com.ar/vuelos/vuelos-a-rio-de-janeiro/IGU-RIO?nonStops=true"/>
+    <hyperlink ref="L16" r:id="rId15" display="https://almundo.com.ar/vuelos/vuelos-a-salvador-de-bahia/IGU-SSA"/>
+    <hyperlink ref="L17" r:id="rId16" display="https://almundo.com.ar/vuelos/vuelos-a-florianopolis/IGU-FLN"/>
+    <hyperlink ref="L18" r:id="rId17" display="https://almundo.com.ar/vuelos/vuelos-a-santiago-de-chile/BUE-SCL?airlines=H2"/>
+    <hyperlink ref="L19" r:id="rId18" display="https://almundo.com.ar/vuelos/vuelos-a-la-habana/SCL-HAV"/>
+    <hyperlink ref="L20" r:id="rId19" display="https://almundo.com.ar/vuelos/vuelos-a-cancun/BUE-CUN?airlines=G0"/>
+    <hyperlink ref="L21" r:id="rId20" display="https://almundo.com.ar/vuelos/vuelos-a-cancun/BUE-PUJ?airlines=G0"/>
+    <hyperlink ref="L22" r:id="rId21" display="https://almundo.com.ar/vuelos/vuelos-a-miami/BUE-MIA?airlines=G0"/>
+    <hyperlink ref="L23" r:id="rId22" display="https://almundo.com.ar/vuelos/vuelos-a-nueva-york/BUE-NYC?airlines=G0"/>
+    <hyperlink ref="L24" r:id="rId23" display="https://almundo.com.ar/vuelos/vuelos-a-punta-cana/BUE-PUJ"/>
+    <hyperlink ref="L25" r:id="rId24" display="https://almundo.com.ar/vuelos/vuelos-a-ushuaia/BUE-USH"/>
+    <hyperlink ref="L26" r:id="rId25" display="https://almundo.com.ar/vuelos/vuelos-a-tucuman/BUE-TUC?airlines=AR"/>
+    <hyperlink ref="L27" r:id="rId26" display="https://almundo.com.ar/vuelos/vuelos-a-mendoza/BUE-MDZ?airlines=AR"/>
+    <hyperlink ref="L28" r:id="rId27" display="https://almundo.com.ar/vuelos/vuelos-a-santiago-de-chile/MDZ-SCL"/>
+    <hyperlink ref="L29" r:id="rId28" display="https://almundo.com.ar/vuelos/vuelos-a-bangkok/BUE-BKK"/>
+    <hyperlink ref="L30" r:id="rId29" display="https://almundo.com.ar/vuelos/vuelos-a-tokio/BUE-TYO"/>
+    <hyperlink ref="L31" r:id="rId30" display="https://almundo.com.ar/vuelos/vuelos-a-tel-aviv/BUE-TLV?airlines=UX"/>
+    <hyperlink ref="L32" r:id="rId31" display="https://almundo.com.ar/vuelos/vuelos-a-auckland/BUE-AKL"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId32"/>
 </worksheet>
 </file>